--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/121.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/121.xlsx
@@ -479,13 +479,13 @@
         <v>-17.26117994135911</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.01461937274356</v>
+        <v>-9.915353532597596</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.109359177234825</v>
+        <v>-3.058207550032201</v>
       </c>
       <c r="G2" t="n">
-        <v>-6.87097416820535</v>
+        <v>-6.72473314546327</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-17.44072807596162</v>
       </c>
       <c r="E3" t="n">
-        <v>-10.31091127835467</v>
+        <v>-10.20825453177269</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.040127079807777</v>
+        <v>-2.99638569601357</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.847735330661286</v>
+        <v>-6.691373957822552</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-17.56923777307851</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.1339981734083</v>
+        <v>-11.03263756480766</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.833203233394297</v>
+        <v>-2.796937554522716</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.721224408301687</v>
+        <v>-6.568384864927377</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-17.57058976338585</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.85767521298471</v>
+        <v>-11.76034703365932</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.814533609541995</v>
+        <v>-2.77292627111099</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.971339761790022</v>
+        <v>-6.81438923532341</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-17.42037698410962</v>
       </c>
       <c r="E6" t="n">
-        <v>-12.7229193231887</v>
+        <v>-12.62039349963514</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.602032442117939</v>
+        <v>-2.568987469745423</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.476149591407417</v>
+        <v>-6.319513280209006</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-17.08542921180409</v>
       </c>
       <c r="E7" t="n">
-        <v>-13.40079948742475</v>
+        <v>-13.30188713945551</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.536453097183734</v>
+        <v>-2.505463616357368</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.558604914704608</v>
+        <v>-6.405307140730837</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-16.57394982182003</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.9816918722093</v>
+        <v>-13.87788300297725</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.44737306864863</v>
+        <v>-2.416396680125106</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.034781878007148</v>
+        <v>-5.887310178797946</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-15.90736706126981</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.99222126704792</v>
+        <v>-14.88473346071735</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.277893208362486</v>
+        <v>-2.238197346146372</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.822555648942768</v>
+        <v>-5.673813996357918</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-15.11518455149478</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.73437154593401</v>
+        <v>-15.63178026086624</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.242242867724465</v>
+        <v>-2.205689158190366</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.454439369941956</v>
+        <v>-5.296768766819049</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-14.26074524624207</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.44837337371038</v>
+        <v>-16.34161873633894</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.028746685284438</v>
+        <v>-1.996107574300015</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.218149488254484</v>
+        <v>-5.061644100084491</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-13.41282537833315</v>
       </c>
       <c r="E12" t="n">
-        <v>-17.10120796261021</v>
+        <v>-16.99183486467043</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.176401676733425</v>
+        <v>-2.129243201897528</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.7018807102967</v>
+        <v>-4.541827308056599</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-12.63524069159415</v>
       </c>
       <c r="E13" t="n">
-        <v>-18.071439249302</v>
+        <v>-17.96252438196168</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.953099359464945</v>
+        <v>-1.912225189993076</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.01786025602788</v>
+        <v>-3.859875437636771</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-12.00683039824538</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.662137768915</v>
+        <v>-18.55154708681094</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.699593099540603</v>
+        <v>-1.659373545210821</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.766920087460516</v>
+        <v>-3.599718287868833</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-11.5689028511542</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.59569751534712</v>
+        <v>-19.48591855601924</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.566797871816976</v>
+        <v>-1.52481085660356</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.174257722421261</v>
+        <v>-3.008404430022275</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-11.32838016866756</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.52751598550129</v>
+        <v>-20.40959361380586</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.391832336640149</v>
+        <v>-1.350369013540402</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.723921781574409</v>
+        <v>-2.570768022931898</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-11.27207697915933</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.32303049077025</v>
+        <v>-21.20649590317604</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.23126833458922</v>
+        <v>-1.183429060005553</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.246366943119609</v>
+        <v>-2.085960048702781</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-11.3455891713611</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.28684654906959</v>
+        <v>-22.16477391737334</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.122471297974477</v>
+        <v>-1.07948926774509</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.863194515850812</v>
+        <v>-1.704005205598265</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-11.48893597011588</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.13534560393902</v>
+        <v>-23.01149241905629</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.039453005655091</v>
+        <v>-0.9919410386424676</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.521302119441978</v>
+        <v>-1.363919546981589</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-11.64933125462044</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.84701700180957</v>
+        <v>-23.71144620588349</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.8335765434689492</v>
+        <v>-0.7859991149421166</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.18742221237228</v>
+        <v>-1.025313318586027</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-11.77001873699433</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.45660771442317</v>
+        <v>-24.32053941098911</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.5776482075188879</v>
+        <v>-0.5221630280756528</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.819960548513554</v>
+        <v>-0.656267486083453</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-11.82459640779877</v>
       </c>
       <c r="E22" t="n">
-        <v>-25.14263129102678</v>
+        <v>-24.998432667528</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.4480475016886416</v>
+        <v>-0.3868278936007305</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.5883838958491033</v>
+        <v>-0.4424309037695411</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-11.80134773276554</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.55053507836359</v>
+        <v>-25.40976663820935</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.390624661424831</v>
+        <v>-0.3256606547241863</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.4087444085577799</v>
+        <v>-0.2496729290308082</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-11.69278383353257</v>
       </c>
       <c r="E24" t="n">
-        <v>-26.01522018312498</v>
+        <v>-25.85830893356689</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.4235387107689304</v>
+        <v>-0.3620048874128179</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.3612979030593647</v>
+        <v>-0.2098068668777523</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-11.51730399883273</v>
       </c>
       <c r="E25" t="n">
-        <v>-26.2644845369286</v>
+        <v>-26.10850284087228</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.1126488874893032</v>
+        <v>-0.05814563075919755</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.3451943705640416</v>
+        <v>-0.1960337642882565</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-11.29305329078071</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.28566788292651</v>
+        <v>-26.12399103513404</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.1602001314104523</v>
+        <v>-0.09735707777016712</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.5150015384212288</v>
+        <v>-0.3602243342263431</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-11.03396864574602</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.31965550110363</v>
+        <v>-26.14821179539123</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.3499468764955881</v>
+        <v>-0.291502836610123</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.477609921505259</v>
+        <v>-0.3311856065233947</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-10.76829873072139</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.35802904073273</v>
+        <v>-26.18837898050965</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.1282156355681155</v>
+        <v>-0.07868745391786575</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.7863526071188431</v>
+        <v>-0.6319027104950008</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-10.51207220822581</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.46640712365654</v>
+        <v>-26.29488486412709</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.1902076895236884</v>
+        <v>-0.1340417103326836</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.8393895259306755</v>
+        <v>-0.6929652109488111</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-10.27846969951266</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.19482039350778</v>
+        <v>-26.02568093309552</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.2793924564815264</v>
+        <v>-0.2337265041695858</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.9681130474705262</v>
+        <v>-0.8309318982949204</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-10.08746530856232</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.7860525141834</v>
+        <v>-25.60714619585122</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.2894735296696554</v>
+        <v>-0.2423674240451251</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.491687330413993</v>
+        <v>-1.354584735055438</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-9.942457346048396</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.87044549830117</v>
+        <v>-25.68795188899035</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.1952613184205947</v>
+        <v>-0.1546228103998769</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.66983429518136</v>
+        <v>-1.528882562787337</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-9.84564792170225</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.44334839499838</v>
+        <v>-25.25983358606591</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.2412022090922114</v>
+        <v>-0.2005898856771772</v>
       </c>
       <c r="G33" t="n">
-        <v>-2.171714632316087</v>
+        <v>-2.034179990963755</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-9.797233447514961</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.79991407953891</v>
+        <v>-24.62048406909306</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.2741817199505194</v>
+        <v>-0.2411629321836863</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.190358071562705</v>
+        <v>-2.060835919549509</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-9.779360087316533</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.44071365877332</v>
+        <v>-24.26023626410012</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.4762090451011944</v>
+        <v>-0.439472043327311</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.343524922508058</v>
+        <v>-2.208307618758711</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-9.781078435254583</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.63401832687752</v>
+        <v>-23.46270554419354</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.5651319660021978</v>
+        <v>-0.5324535781092495</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.507309631058051</v>
+        <v>-2.375705802893021</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-9.789114102823499</v>
       </c>
       <c r="E37" t="n">
-        <v>-22.83685419145051</v>
+        <v>-22.66812059242634</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.5205003056147537</v>
+        <v>-0.4844833804971652</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.679722167180742</v>
+        <v>-2.543051617815963</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-9.783341053710521</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.47301909547894</v>
+        <v>-22.29715019140603</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.5724767478964061</v>
+        <v>-0.5424822820860117</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.955891203324112</v>
+        <v>-2.817296085441599</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-9.763464260986023</v>
       </c>
       <c r="E39" t="n">
-        <v>-21.80868946468408</v>
+        <v>-21.63804438944502</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.5275570568464441</v>
+        <v>-0.4872851333052946</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.146240194339967</v>
+        <v>-3.010708675322419</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-9.72927042455221</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.41275204214459</v>
+        <v>-21.23878152198374</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.6932532416113292</v>
+        <v>-0.6620673762423376</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.32906111122183</v>
+        <v>-3.201096943246799</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-9.680355982308152</v>
       </c>
       <c r="E41" t="n">
-        <v>-20.76194676018523</v>
+        <v>-20.60190645024797</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.5008356667464811</v>
+        <v>-0.4630905576537848</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.252248570449423</v>
+        <v>-3.117293112756911</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-9.634673713200122</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.27374787952011</v>
+        <v>-20.10813024857228</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.2549098501674986</v>
+        <v>-0.2156984031565291</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.371179049463663</v>
+        <v>-3.234050269499424</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-9.602245571213313</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.35266509769616</v>
+        <v>-19.18620955936645</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.2242214923064927</v>
+        <v>-0.1882045671889043</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.36334985236431</v>
+        <v>-3.217724167855792</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-9.59374578360616</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.01595725321264</v>
+        <v>-18.85064074523017</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.1729913112868186</v>
+        <v>-0.1368041862322878</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.60060856446207</v>
+        <v>-3.45246915780794</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-9.62771946010923</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.43784043663055</v>
+        <v>-18.27419974341181</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.2013754238476807</v>
+        <v>-0.1646776989823226</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.669578815832283</v>
+        <v>-3.524057869746498</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-9.708850359280992</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.96738162631596</v>
+        <v>-17.80834942369752</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.1237773449047703</v>
+        <v>-0.08787825051275745</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.467237275413407</v>
+        <v>-3.33270077141183</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-9.845127166305394</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.27473334447444</v>
+        <v>-17.11977284803978</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.1840281225823937</v>
+        <v>-0.1441751527321795</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.851980779023211</v>
+        <v>-3.716842029090914</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-10.04484432150214</v>
       </c>
       <c r="E48" t="n">
-        <v>-16.60931705254372</v>
+        <v>-16.46060158456455</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.1300354656631154</v>
+        <v>-0.09352103303754139</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.697491605490843</v>
+        <v>-3.568375314865741</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-10.2997443499017</v>
       </c>
       <c r="E49" t="n">
-        <v>-15.94798555909961</v>
+        <v>-15.80868345686364</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.04412377441570893</v>
+        <v>-0.005174173461573876</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.008263598044895</v>
+        <v>-3.874054401614361</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-10.6125980081342</v>
       </c>
       <c r="E50" t="n">
-        <v>-15.21463330772317</v>
+        <v>-15.08556938630943</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0140976963214469</v>
+        <v>0.06471253910755988</v>
       </c>
       <c r="G50" t="n">
-        <v>-3.970662504283458</v>
+        <v>-3.836361661733032</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-10.97936023160025</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.39529081128226</v>
+        <v>-14.26709098185608</v>
       </c>
       <c r="F51" t="n">
-        <v>0.05027172907313602</v>
+        <v>0.09417022050144352</v>
       </c>
       <c r="G51" t="n">
-        <v>-4.159335680535571</v>
+        <v>-4.015477456910686</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-11.38227306306638</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.81751439457405</v>
+        <v>-13.68778276571539</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1124339829656514</v>
+        <v>0.1631404718716565</v>
       </c>
       <c r="G52" t="n">
-        <v>-4.037472525684786</v>
+        <v>-3.911799510707057</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-11.81866475017595</v>
       </c>
       <c r="E53" t="n">
-        <v>-13.13348084800239</v>
+        <v>-13.01041320129016</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1912496460728423</v>
+        <v>0.2374785674069771</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.100106102479603</v>
+        <v>-3.970767242706192</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-12.27498278460397</v>
       </c>
       <c r="E54" t="n">
-        <v>-12.74323857719906</v>
+        <v>-12.62569588228604</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0390123486292516</v>
+        <v>0.09588531217370964</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.316050545551033</v>
+        <v>-4.176879366343485</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-12.73377242263198</v>
       </c>
       <c r="E55" t="n">
-        <v>-12.12541280609801</v>
+        <v>-12.02262513648762</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.09757964691847647</v>
+        <v>-0.05322292489070855</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.716465535662383</v>
+        <v>-4.58453439992631</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-13.19551940251815</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.69609001131213</v>
+        <v>-11.59199311141756</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.1242879447155976</v>
+        <v>-0.07312322521013218</v>
       </c>
       <c r="G56" t="n">
-        <v>-4.845398534047701</v>
+        <v>-4.709225492190908</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-13.64886823275274</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.91671831544701</v>
+        <v>-10.81588139896004</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.1671521442194088</v>
+        <v>-0.114665102126929</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.282406510601676</v>
+        <v>-5.137068856755675</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-14.08677253768487</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.66209920978113</v>
+        <v>-10.55924607865653</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.3305048067756249</v>
+        <v>-0.275634965565951</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.280180819118582</v>
+        <v>-5.142921116125926</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-14.51658164106614</v>
       </c>
       <c r="E59" t="n">
-        <v>-10.03819861016151</v>
+        <v>-9.936013186481841</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.2835165318766701</v>
+        <v>-0.2276778602567084</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.596294471232058</v>
+        <v>-5.455067800478359</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-14.93288747010933</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.732846830983934</v>
+        <v>-9.627021747114263</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.3822717722118098</v>
+        <v>-0.3297323609079631</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.462190013224258</v>
+        <v>-5.327627324616998</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-15.34183061805085</v>
       </c>
       <c r="E61" t="n">
-        <v>-9.157885259386692</v>
+        <v>-9.05782078876738</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.4068591169485714</v>
+        <v>-0.3561133511340411</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.830280107619386</v>
+        <v>-5.698702464060039</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-15.7536117935894</v>
       </c>
       <c r="E62" t="n">
-        <v>-8.681129051405238</v>
+        <v>-8.583316456874702</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.3547648439413433</v>
+        <v>-0.3059698312502303</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.866624340308018</v>
+        <v>-5.728186330059606</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-16.16142501320293</v>
       </c>
       <c r="E63" t="n">
-        <v>-8.232089248539717</v>
+        <v>-8.131579639623785</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.3686165003478895</v>
+        <v>-0.3165876888548702</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.849277039042731</v>
+        <v>-5.709608352327197</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-16.57247128705528</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.884593346514624</v>
+        <v>-7.791048842710491</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.5156299689576316</v>
+        <v>-0.4660756027016984</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.018743807026033</v>
+        <v>-5.881798319301579</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-16.98517664908957</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.532030723289783</v>
+        <v>-7.434728728570074</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.4332924763860163</v>
+        <v>-0.3882418623076369</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.251708243791707</v>
+        <v>-6.118415508560094</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-17.37823251631069</v>
       </c>
       <c r="E66" t="n">
-        <v>-7.276403510305081</v>
+        <v>-7.178761115711488</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.5573551381142126</v>
+        <v>-0.5119379395562648</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.191850235199335</v>
+        <v>-6.064475220852183</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-17.7459327549918</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.109817048946959</v>
+        <v>-7.014203961293833</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.6556259632442084</v>
+        <v>-0.6072891811525557</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.277932126383684</v>
+        <v>-6.145267821688474</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-18.06877044823273</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.824915446808157</v>
+        <v>-6.732562342562622</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.6112692412164404</v>
+        <v>-0.5593844450546801</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.226610299244118</v>
+        <v>-6.102704745150023</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-18.31907339738861</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.725047360731471</v>
+        <v>-6.626501597241799</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.9141203905512479</v>
+        <v>-0.8585697495938042</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.243865954389513</v>
+        <v>-6.115116248243979</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-18.49232809753088</v>
       </c>
       <c r="E70" t="n">
-        <v>-6.539555614069896</v>
+        <v>-6.443196265154793</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.8064100150723675</v>
+        <v>-0.7558999107089883</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.065640435805096</v>
+        <v>-5.939901959313159</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-18.57655425303475</v>
       </c>
       <c r="E71" t="n">
-        <v>-6.469970024466122</v>
+        <v>-6.370926753468464</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.880512449156537</v>
+        <v>-0.8272791458020788</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.960378320957618</v>
+        <v>-5.840806319104134</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-18.56382329495446</v>
       </c>
       <c r="E72" t="n">
-        <v>-6.488194510021805</v>
+        <v>-6.392895637636881</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.017457936880992</v>
+        <v>-0.9635438337787638</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.749186383817735</v>
+        <v>-5.637823255846014</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-18.4696122746029</v>
       </c>
       <c r="E73" t="n">
-        <v>-6.546010119370867</v>
+        <v>-6.451352769825188</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.081322190142932</v>
+        <v>-1.019552705335668</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.587758289779253</v>
+        <v>-5.468709980039438</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-18.2983481571979</v>
       </c>
       <c r="E74" t="n">
-        <v>-6.76372202332593</v>
+        <v>-6.668724273906365</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.9580712511909223</v>
+        <v>-0.898632196289486</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.430742301798432</v>
+        <v>-5.312793745497322</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-18.06364422335614</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.930112100141427</v>
+        <v>-6.83987994895625</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.311943104699936</v>
+        <v>-1.251757788536521</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.263056087001605</v>
+        <v>-5.142659270069092</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-17.79091633657121</v>
       </c>
       <c r="E76" t="n">
-        <v>-7.393474882315796</v>
+        <v>-7.304957822802885</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.250199804498356</v>
+        <v>-1.190656011174186</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.01127801105237</v>
+        <v>-4.90310940497403</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-17.48870299602109</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.80734875974844</v>
+        <v>-7.722104775945962</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.323765454166015</v>
+        <v>-1.262428015352528</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.959681245553128</v>
+        <v>-4.84356561164986</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-17.17759787174567</v>
       </c>
       <c r="E78" t="n">
-        <v>-8.407460645104639</v>
+        <v>-8.323905568368742</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.3664332691272</v>
+        <v>-1.304703061228462</v>
       </c>
       <c r="G78" t="n">
-        <v>-4.6119234974712</v>
+        <v>-4.493830925838831</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-16.87758096379673</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.817917431495593</v>
+        <v>-8.733707739617611</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.399478241499717</v>
+        <v>-1.33192195883641</v>
       </c>
       <c r="G79" t="n">
-        <v>-4.478827146782213</v>
+        <v>-4.358024468461607</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-16.58846398600448</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.256797607355933</v>
+        <v>-9.178440174848202</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.499163035336619</v>
+        <v>-1.438205273305542</v>
       </c>
       <c r="G80" t="n">
-        <v>-4.129498322359278</v>
+        <v>-4.004545384037844</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-16.32759552388007</v>
       </c>
       <c r="E81" t="n">
-        <v>-10.13601120469205</v>
+        <v>-10.05514005003871</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.498063281897914</v>
+        <v>-1.429957122515255</v>
       </c>
       <c r="G81" t="n">
-        <v>-4.14414860923917</v>
+        <v>-4.019994301391081</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-16.10124629204301</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.86979550206227</v>
+        <v>-10.79234143845062</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.586842187467658</v>
+        <v>-1.516418690482014</v>
       </c>
       <c r="G82" t="n">
-        <v>-3.932655549133927</v>
+        <v>-3.810884040403033</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-15.89821836105071</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.64856495199666</v>
+        <v>-11.57065265778555</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.723578198346646</v>
+        <v>-1.652094224830821</v>
       </c>
       <c r="G83" t="n">
-        <v>-3.615337405159012</v>
+        <v>-3.488708652073838</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-15.72478755432503</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.84558110851283</v>
+        <v>-12.76685709152553</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.791134481009952</v>
+        <v>-1.716613093234847</v>
       </c>
       <c r="G84" t="n">
-        <v>-3.468481044183371</v>
+        <v>-3.339809891854887</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-15.57198677362969</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.71278906414308</v>
+        <v>-13.63386866261316</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.844498707392827</v>
+        <v>-1.773237303025313</v>
       </c>
       <c r="G85" t="n">
-        <v>-3.133985798880111</v>
+        <v>-3.005223000431736</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-15.4231911919411</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.81190098000883</v>
+        <v>-14.73825677652412</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.029506038849259</v>
+        <v>-1.957393634797031</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.886030675360661</v>
+        <v>-2.753916247384804</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-15.28389783799461</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.85953396110091</v>
+        <v>-15.78361169692174</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.058269828192531</v>
+        <v>-1.988697330891599</v>
       </c>
       <c r="G87" t="n">
-        <v>-2.44669226890086</v>
+        <v>-2.321137084648707</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-15.14449911993841</v>
       </c>
       <c r="E88" t="n">
-        <v>-17.2486142003052</v>
+        <v>-17.17218133631521</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.983787717325951</v>
+        <v>-1.91778941870081</v>
       </c>
       <c r="G88" t="n">
-        <v>-2.189795102540511</v>
+        <v>-2.055651367624185</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-15.00363263845556</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.85870560378067</v>
+        <v>-18.78737873789895</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.210389294910546</v>
+        <v>-2.142950842972815</v>
       </c>
       <c r="G89" t="n">
-        <v>-2.009658107741202</v>
+        <v>-1.874205142540704</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-14.87694840048711</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.43096025204356</v>
+        <v>-20.35825869436345</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.412508266181113</v>
+        <v>-2.347269321120792</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.734628101945062</v>
+        <v>-1.589067878950752</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-14.76648368973103</v>
       </c>
       <c r="E91" t="n">
-        <v>-22.08908731464532</v>
+        <v>-22.03102295154227</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.554389552076898</v>
+        <v>-2.491965452127548</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.871953266451927</v>
+        <v>-1.724285182700099</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-14.69001995301087</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.72010021806187</v>
+        <v>-23.66495543849252</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.672469031406426</v>
+        <v>-2.609887823822975</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.670776940985964</v>
+        <v>-1.522297134457949</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-14.66725875488583</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.82048527065714</v>
+        <v>-25.76537976799632</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.764311535841134</v>
+        <v>-2.70860378724959</v>
       </c>
       <c r="G93" t="n">
-        <v>-1.642078613156901</v>
+        <v>-1.493585714326044</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-14.69664877096934</v>
       </c>
       <c r="E94" t="n">
-        <v>-28.02513742308392</v>
+        <v>-27.97158990446126</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.605855394547723</v>
+        <v>-2.551561614663086</v>
       </c>
       <c r="G94" t="n">
-        <v>-1.720213476516322</v>
+        <v>-1.578829698128522</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-14.79094519985912</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.27597921993631</v>
+        <v>-30.22342671632962</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.035780435264324</v>
+        <v>-2.985100130964002</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.08754421734663</v>
+        <v>-1.940412918011313</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-14.94743859992676</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.51066511508201</v>
+        <v>-32.45438130516543</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.023290378353317</v>
+        <v>-2.982599501121233</v>
       </c>
       <c r="G96" t="n">
-        <v>-2.352768088314317</v>
+        <v>-2.203908605003892</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-15.1437441141402</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.7580898208927</v>
+        <v>-34.70031348845217</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.280030437079566</v>
+        <v>-3.249564648366869</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.520140087842943</v>
+        <v>-2.372655296330899</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-15.37418408106301</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.25526329571217</v>
+        <v>-37.19894020888706</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.529962498328116</v>
+        <v>-3.503961184884449</v>
       </c>
       <c r="G98" t="n">
-        <v>-2.984419331216233</v>
+        <v>-2.829642127021347</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-15.612974071037</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.68434370345181</v>
+        <v>-39.636020013663</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.468860720965781</v>
+        <v>-3.447323882791141</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.47234327352168</v>
+        <v>-3.309056072479672</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-15.83301159037508</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.25402235140876</v>
+        <v>-42.20728283026379</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.647439731726924</v>
+        <v>-3.624344909514119</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.744008557487496</v>
+        <v>-3.590409660548366</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-16.01698063144353</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.55143346946916</v>
+        <v>-44.5104676538774</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.84256741328001</v>
+        <v>-3.830090448671845</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.241228034810568</v>
+        <v>-4.091164059638705</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-16.1510936322248</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.87068254866957</v>
+        <v>-46.83279342424562</v>
       </c>
       <c r="F102" t="n">
-        <v>-3.961144400117523</v>
+        <v>-3.955239771535904</v>
       </c>
       <c r="G102" t="n">
-        <v>-4.546933306164872</v>
+        <v>-4.401713483044446</v>
       </c>
     </row>
   </sheetData>
